--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Dkk2-Lrp6.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Dkk2-Lrp6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Dkk2</t>
   </si>
   <si>
     <t>Lrp6</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.93620336111158</v>
+        <v>0.135051</v>
       </c>
       <c r="H2">
-        <v>3.93620336111158</v>
+        <v>0.405153</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.03097592833057383</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.03097592833057382</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.4405272346025</v>
+        <v>10.779612</v>
       </c>
       <c r="N2">
-        <v>10.4405272346025</v>
+        <v>32.338836</v>
       </c>
       <c r="O2">
-        <v>0.1298804929206324</v>
+        <v>0.1321092878737708</v>
       </c>
       <c r="P2">
-        <v>0.1298804929206324</v>
+        <v>0.1321092878737708</v>
       </c>
       <c r="Q2">
-        <v>41.09603839261936</v>
+        <v>1.455797380212</v>
       </c>
       <c r="R2">
-        <v>41.09603839261936</v>
+        <v>13.102176421908</v>
       </c>
       <c r="S2">
-        <v>0.1298804929206324</v>
+        <v>0.004092207832981071</v>
       </c>
       <c r="T2">
-        <v>0.1298804929206324</v>
+        <v>0.004092207832981069</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.93620336111158</v>
+        <v>0.135051</v>
       </c>
       <c r="H3">
-        <v>3.93620336111158</v>
+        <v>0.405153</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.03097592833057383</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.03097592833057382</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>38.5411116393123</v>
+        <v>38.54369466666667</v>
       </c>
       <c r="N3">
-        <v>38.5411116393123</v>
+        <v>115.631084</v>
       </c>
       <c r="O3">
-        <v>0.4794526622020335</v>
+        <v>0.4723713668393066</v>
       </c>
       <c r="P3">
-        <v>0.4794526622020335</v>
+        <v>0.4723713668393065</v>
       </c>
       <c r="Q3">
-        <v>151.7056531756377</v>
+        <v>5.205364508428</v>
       </c>
       <c r="R3">
-        <v>151.7056531756377</v>
+        <v>46.848280575852</v>
       </c>
       <c r="S3">
-        <v>0.4794526622020335</v>
+        <v>0.01463214160462956</v>
       </c>
       <c r="T3">
-        <v>0.4794526622020335</v>
+        <v>0.01463214160462955</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.93620336111158</v>
+        <v>0.135051</v>
       </c>
       <c r="H4">
-        <v>3.93620336111158</v>
+        <v>0.405153</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.03097592833057383</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.03097592833057382</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.3813090451176</v>
+        <v>12.62567333333333</v>
       </c>
       <c r="N4">
-        <v>12.3813090451176</v>
+        <v>37.87702</v>
       </c>
       <c r="O4">
-        <v>0.1540238807531623</v>
+        <v>0.1547336502458089</v>
       </c>
       <c r="P4">
-        <v>0.1540238807531623</v>
+        <v>0.1547336502458089</v>
       </c>
       <c r="Q4">
-        <v>48.7353502783531</v>
+        <v>1.70510980934</v>
       </c>
       <c r="R4">
-        <v>48.7353502783531</v>
+        <v>15.34598828406</v>
       </c>
       <c r="S4">
-        <v>0.1540238807531623</v>
+        <v>0.004793018460342254</v>
       </c>
       <c r="T4">
-        <v>0.1540238807531623</v>
+        <v>0.004793018460342253</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,557 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.135051</v>
+      </c>
+      <c r="H5">
+        <v>0.405153</v>
+      </c>
+      <c r="I5">
+        <v>0.03097592833057383</v>
+      </c>
+      <c r="J5">
+        <v>0.03097592833057382</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>19.64719066666667</v>
+      </c>
+      <c r="N5">
+        <v>58.94157200000001</v>
+      </c>
+      <c r="O5">
+        <v>0.2407856950411137</v>
+      </c>
+      <c r="P5">
+        <v>0.2407856950411137</v>
+      </c>
+      <c r="Q5">
+        <v>2.653372746724</v>
+      </c>
+      <c r="R5">
+        <v>23.880354720516</v>
+      </c>
+      <c r="S5">
+        <v>0.007458560432620945</v>
+      </c>
+      <c r="T5">
+        <v>0.007458560432620941</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3.944536333333333</v>
+      </c>
+      <c r="H6">
+        <v>11.833609</v>
+      </c>
+      <c r="I6">
+        <v>0.9047372826463912</v>
+      </c>
+      <c r="J6">
+        <v>0.9047372826463912</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>10.779612</v>
+      </c>
+      <c r="N6">
+        <v>32.338836</v>
+      </c>
+      <c r="O6">
+        <v>0.1321092878737708</v>
+      </c>
+      <c r="P6">
+        <v>0.1321092878737708</v>
+      </c>
+      <c r="Q6">
+        <v>42.520571193236</v>
+      </c>
+      <c r="R6">
+        <v>382.685140739124</v>
+      </c>
+      <c r="S6">
+        <v>0.1195241981232653</v>
+      </c>
+      <c r="T6">
+        <v>0.1195241981232652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.944536333333333</v>
+      </c>
+      <c r="H7">
+        <v>11.833609</v>
+      </c>
+      <c r="I7">
+        <v>0.9047372826463912</v>
+      </c>
+      <c r="J7">
+        <v>0.9047372826463912</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>38.54369466666667</v>
+      </c>
+      <c r="N7">
+        <v>115.631084</v>
+      </c>
+      <c r="O7">
+        <v>0.4723713668393066</v>
+      </c>
+      <c r="P7">
+        <v>0.4723713668393065</v>
+      </c>
+      <c r="Q7">
+        <v>152.0370040335729</v>
+      </c>
+      <c r="R7">
+        <v>1368.333036302156</v>
+      </c>
+      <c r="S7">
+        <v>0.4273719868341558</v>
+      </c>
+      <c r="T7">
+        <v>0.4273719868341558</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.944536333333333</v>
+      </c>
+      <c r="H8">
+        <v>11.833609</v>
+      </c>
+      <c r="I8">
+        <v>0.9047372826463912</v>
+      </c>
+      <c r="J8">
+        <v>0.9047372826463912</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>12.62567333333333</v>
+      </c>
+      <c r="N8">
+        <v>37.87702</v>
+      </c>
+      <c r="O8">
+        <v>0.1547336502458089</v>
+      </c>
+      <c r="P8">
+        <v>0.1547336502458089</v>
+      </c>
+      <c r="Q8">
+        <v>49.80242719613111</v>
+      </c>
+      <c r="R8">
+        <v>448.22184476518</v>
+      </c>
+      <c r="S8">
+        <v>0.1399933022573503</v>
+      </c>
+      <c r="T8">
+        <v>0.1399933022573502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.944536333333333</v>
+      </c>
+      <c r="H9">
+        <v>11.833609</v>
+      </c>
+      <c r="I9">
+        <v>0.9047372826463912</v>
+      </c>
+      <c r="J9">
+        <v>0.9047372826463912</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>19.64719066666667</v>
+      </c>
+      <c r="N9">
+        <v>58.94157200000001</v>
+      </c>
+      <c r="O9">
+        <v>0.2407856950411137</v>
+      </c>
+      <c r="P9">
+        <v>0.2407856950411137</v>
+      </c>
+      <c r="Q9">
+        <v>77.49905743259423</v>
+      </c>
+      <c r="R9">
+        <v>697.491516893348</v>
+      </c>
+      <c r="S9">
+        <v>0.2178477954316199</v>
+      </c>
+      <c r="T9">
+        <v>0.2178477954316198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.280282</v>
+      </c>
+      <c r="H10">
+        <v>0.840846</v>
+      </c>
+      <c r="I10">
+        <v>0.06428678902303493</v>
+      </c>
+      <c r="J10">
+        <v>0.06428678902303493</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>10.779612</v>
+      </c>
+      <c r="N10">
+        <v>32.338836</v>
+      </c>
+      <c r="O10">
+        <v>0.1321092878737708</v>
+      </c>
+      <c r="P10">
+        <v>0.1321092878737708</v>
+      </c>
+      <c r="Q10">
+        <v>3.021331210584</v>
+      </c>
+      <c r="R10">
+        <v>27.191980895256</v>
+      </c>
+      <c r="S10">
+        <v>0.008492881917524493</v>
+      </c>
+      <c r="T10">
+        <v>0.008492881917524491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.280282</v>
+      </c>
+      <c r="H11">
+        <v>0.840846</v>
+      </c>
+      <c r="I11">
+        <v>0.06428678902303493</v>
+      </c>
+      <c r="J11">
+        <v>0.06428678902303493</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>38.54369466666667</v>
+      </c>
+      <c r="N11">
+        <v>115.631084</v>
+      </c>
+      <c r="O11">
+        <v>0.4723713668393066</v>
+      </c>
+      <c r="P11">
+        <v>0.4723713668393065</v>
+      </c>
+      <c r="Q11">
+        <v>10.80310382856267</v>
+      </c>
+      <c r="R11">
+        <v>97.22793445706399</v>
+      </c>
+      <c r="S11">
+        <v>0.03036723840052114</v>
+      </c>
+      <c r="T11">
+        <v>0.03036723840052114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>3.93620336111158</v>
-      </c>
-      <c r="H5">
-        <v>3.93620336111158</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>19.0226973755425</v>
-      </c>
-      <c r="N5">
-        <v>19.0226973755425</v>
-      </c>
-      <c r="O5">
-        <v>0.236642964124172</v>
-      </c>
-      <c r="P5">
-        <v>0.236642964124172</v>
-      </c>
-      <c r="Q5">
-        <v>74.87720534701882</v>
-      </c>
-      <c r="R5">
-        <v>74.87720534701882</v>
-      </c>
-      <c r="S5">
-        <v>0.236642964124172</v>
-      </c>
-      <c r="T5">
-        <v>0.236642964124172</v>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.280282</v>
+      </c>
+      <c r="H12">
+        <v>0.840846</v>
+      </c>
+      <c r="I12">
+        <v>0.06428678902303493</v>
+      </c>
+      <c r="J12">
+        <v>0.06428678902303493</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>12.62567333333333</v>
+      </c>
+      <c r="N12">
+        <v>37.87702</v>
+      </c>
+      <c r="O12">
+        <v>0.1547336502458089</v>
+      </c>
+      <c r="P12">
+        <v>0.1547336502458089</v>
+      </c>
+      <c r="Q12">
+        <v>3.538748973213333</v>
+      </c>
+      <c r="R12">
+        <v>31.84874075892</v>
+      </c>
+      <c r="S12">
+        <v>0.009947329528116396</v>
+      </c>
+      <c r="T12">
+        <v>0.009947329528116394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.280282</v>
+      </c>
+      <c r="H13">
+        <v>0.840846</v>
+      </c>
+      <c r="I13">
+        <v>0.06428678902303493</v>
+      </c>
+      <c r="J13">
+        <v>0.06428678902303493</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>19.64719066666667</v>
+      </c>
+      <c r="N13">
+        <v>58.94157200000001</v>
+      </c>
+      <c r="O13">
+        <v>0.2407856950411137</v>
+      </c>
+      <c r="P13">
+        <v>0.2407856950411137</v>
+      </c>
+      <c r="Q13">
+        <v>5.506753894434667</v>
+      </c>
+      <c r="R13">
+        <v>49.56078504991201</v>
+      </c>
+      <c r="S13">
+        <v>0.01547933917687291</v>
+      </c>
+      <c r="T13">
+        <v>0.0154793391768729</v>
       </c>
     </row>
   </sheetData>
